--- a/Resource/excel/2001-玩家-新建角色.xlsx
+++ b/Resource/excel/2001-玩家-新建角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>PCC</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 创建账号
+0 创建角色</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#player</t>
   </si>
@@ -29,6 +62,9 @@
   </si>
   <si>
     <t>服务类型</t>
+  </si>
+  <si>
+    <t>执行类型</t>
   </si>
   <si>
     <t>lua脚本</t>
@@ -43,6 +79,9 @@
     <t>Service(int)</t>
   </si>
   <si>
+    <t>Type(int)</t>
+  </si>
+  <si>
     <t>Elements(json)</t>
   </si>
   <si>
@@ -54,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -79,9 +118,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -94,6 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,45 +185,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,52 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,27 +239,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -257,25 +307,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,43 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,103 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -499,23 +534,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,22 +575,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +618,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,34 +1202,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="25.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="59.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="4" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="4"/>
+    <col min="3" max="4" width="31.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="59.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="4" customWidth="1"/>
+    <col min="12" max="13" width="17.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="4" customWidth="1"/>
+    <col min="18" max="18" width="19.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -1188,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1201,8 +1251,11 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1215,43 +1268,53 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:12">
+    <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>